--- a/ToDoes.xlsx
+++ b/ToDoes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L\Desktop\GIT\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -197,6 +203,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -217,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +269,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -329,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +494,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -493,72 +505,83 @@
     <col min="4" max="16384" width="34.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
